--- a/microcode.xlsx
+++ b/microcode.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necro\Desktop\Dev\CS2200\interrupts-project\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhi/Desktop/second_year/2200/cs2200-project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
   <si>
     <t>FETCH0</t>
   </si>
@@ -362,11 +362,20 @@
   <si>
     <t>LdEnInt</t>
   </si>
+  <si>
+    <t>INT0</t>
+  </si>
+  <si>
+    <t>INT1</t>
+  </si>
+  <si>
+    <t>INT2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -834,20 +843,20 @@
   <dimension ref="A1:AJ90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.77734375" customWidth="1"/>
-    <col min="31" max="31" width="8.77734375" customWidth="1"/>
+    <col min="2" max="6" width="8.83203125" customWidth="1"/>
+    <col min="31" max="31" width="8.83203125" customWidth="1"/>
     <col min="32" max="32" width="15" customWidth="1"/>
-    <col min="33" max="33" width="17.44140625" customWidth="1"/>
-    <col min="34" max="35" width="12.109375" customWidth="1"/>
+    <col min="33" max="33" width="17.5" customWidth="1"/>
+    <col min="34" max="35" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -951,7 +960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1066,10 @@
         <v>00006202</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
@@ -1074,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -1157,10 +1169,10 @@
       </c>
       <c r="AH3" s="1" t="str">
         <f t="shared" ref="AH3:AH66" si="1">BIN2HEX(CONCATENATE(B3,C3,D3,E3,F3,G3), 2)&amp;BIN2HEX(CONCATENATE(H3,I3,J3,K3,L3,M3,N3,O3), 2)&amp;BIN2HEX(CONCATENATE(P3,Q3,R3,S3,T3,U3,V3,W3), 2)&amp;BIN2HEX(CONCATENATE(X3,Y3,Z3,AA3,AB3,AC3,AD3,AE3), 2)</f>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+        <v>01800000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>00001083</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>45</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>00E00900</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>46</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>00084045</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>47</v>
       </c>
@@ -1584,7 +1596,7 @@
         <v>00108046</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
@@ -1690,7 +1702,7 @@
         <v>00020100</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>00084048</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>50</v>
       </c>
@@ -1902,7 +1914,7 @@
         <v>00008406</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>51</v>
       </c>
@@ -2008,7 +2020,7 @@
         <v>0008404A</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>52</v>
       </c>
@@ -2114,7 +2126,7 @@
         <v>0010804B</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>53</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>00420100</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>54</v>
       </c>
@@ -2326,7 +2338,7 @@
         <v>0008404D</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>55</v>
       </c>
@@ -2432,7 +2444,7 @@
         <v>0010804E</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>56</v>
       </c>
@@ -2538,7 +2550,7 @@
         <v>0021010F</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>57</v>
       </c>
@@ -2644,7 +2656,7 @@
         <v>01000000</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>58</v>
       </c>
@@ -2750,7 +2762,7 @@
         <v>00004211</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
@@ -2856,7 +2868,7 @@
         <v>00600900</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>60</v>
       </c>
@@ -2962,7 +2974,7 @@
         <v>00004213</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>61</v>
       </c>
@@ -3068,7 +3080,7 @@
         <v>00008414</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>62</v>
       </c>
@@ -3174,7 +3186,7 @@
         <v>00000900</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>63</v>
       </c>
@@ -3280,7 +3292,7 @@
         <v>00004216</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>64</v>
       </c>
@@ -3386,7 +3398,7 @@
         <v>00008406</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>65</v>
       </c>
@@ -3492,7 +3504,7 @@
         <v>00084058</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>66</v>
       </c>
@@ -3598,7 +3610,7 @@
         <v>00008419</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>67</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>0000211A</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>68</v>
       </c>
@@ -3810,7 +3822,7 @@
         <v>00020080</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>69</v>
       </c>
@@ -3916,7 +3928,7 @@
         <v>0008405C</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>70</v>
       </c>
@@ -4022,7 +4034,7 @@
         <v>0000841D</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>71</v>
       </c>
@@ -4128,7 +4140,7 @@
         <v>0000211E</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
@@ -4234,7 +4246,7 @@
         <v>00040040</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>73</v>
       </c>
@@ -4340,7 +4352,7 @@
         <v>000A0220</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>74</v>
       </c>
@@ -4446,7 +4458,7 @@
         <v>00000840</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>75</v>
       </c>
@@ -4552,8 +4564,10 @@
         <v>00000021</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="B36" s="2">
         <v>0</v>
       </c>
@@ -4582,10 +4596,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -4600,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2">
         <v>0</v>
@@ -4615,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="2">
         <v>0</v>
@@ -4627,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36" s="2">
         <v>0</v>
@@ -4639,25 +4653,27 @@
         <v>0</v>
       </c>
       <c r="AD36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36" s="2">
         <v>34</v>
       </c>
       <c r="AG36" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AH36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+        <v>00184223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="B37" s="2">
         <v>0</v>
       </c>
@@ -4671,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="2">
         <v>0</v>
@@ -4757,10 +4773,10 @@
       </c>
       <c r="AH37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+        <v>02000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="2">
         <v>0</v>
@@ -4864,7 +4880,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="2">
         <v>0</v>
@@ -4968,7 +4984,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="2">
         <v>0</v>
@@ -5072,7 +5088,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="2">
         <v>0</v>
@@ -5176,7 +5192,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="2">
         <v>0</v>
@@ -5280,7 +5296,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="2">
         <v>0</v>
@@ -5384,7 +5400,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="2">
         <v>0</v>
@@ -5488,7 +5504,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="2">
         <v>0</v>
@@ -5593,7 +5609,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="2">
         <v>0</v>
@@ -5698,7 +5714,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="2">
         <v>0</v>
@@ -5803,7 +5819,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="2">
         <v>0</v>
@@ -5908,7 +5924,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="2">
         <v>0</v>
@@ -6013,7 +6029,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="2">
         <v>0</v>
@@ -6118,7 +6134,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="2">
         <v>0</v>
@@ -6223,7 +6239,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="2">
         <v>0</v>
@@ -6328,7 +6344,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="2">
         <v>0</v>
@@ -6433,7 +6449,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="2">
         <v>0</v>
@@ -6538,7 +6554,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="2">
         <v>0</v>
@@ -6643,7 +6659,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="2">
         <v>0</v>
@@ -6748,7 +6764,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="2">
         <v>0</v>
@@ -6853,7 +6869,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="2">
         <v>0</v>
@@ -6958,7 +6974,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="2">
         <v>0</v>
@@ -7063,7 +7079,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="2">
         <v>0</v>
@@ -7168,7 +7184,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="2">
         <v>0</v>
@@ -7273,7 +7289,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="2">
         <v>0</v>
@@ -7378,7 +7394,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="2">
         <v>0</v>
@@ -7483,7 +7499,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="2">
         <v>0</v>
@@ -7588,7 +7604,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="2">
         <v>0</v>
@@ -7693,7 +7709,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="2">
         <v>0</v>
@@ -7798,7 +7814,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R69" s="15" t="s">
         <v>76</v>
       </c>
@@ -7822,7 +7838,7 @@
       <c r="AH69" s="15"/>
       <c r="AI69" s="15"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>36</v>
       </c>
@@ -7883,7 +7899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
@@ -7938,7 +7954,7 @@
         <v>04</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -7993,7 +8009,7 @@
         <v>07</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A73" s="17"/>
       <c r="B73" s="17"/>
       <c r="C73" s="17"/>
@@ -8041,7 +8057,7 @@
         <v>09</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="R74" s="8"/>
       <c r="T74" s="13"/>
       <c r="U74" s="13"/>
@@ -8072,7 +8088,7 @@
         <v>0C</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AA75" s="12"/>
       <c r="AB75" s="12"/>
       <c r="AC75" s="12"/>
@@ -8091,7 +8107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AA76" s="12"/>
       <c r="AB76" s="12"/>
       <c r="AC76" s="12"/>
@@ -8110,7 +8126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AF77" s="10"/>
       <c r="AG77" s="10"/>
       <c r="AI77" s="12" t="str">
@@ -8118,7 +8134,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AF78" s="10"/>
       <c r="AG78" s="10"/>
       <c r="AI78" s="12" t="str">
@@ -8126,7 +8142,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AF79" s="10" t="s">
         <v>96</v>
       </c>
@@ -8141,7 +8157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AF80" s="10" t="s">
         <v>97</v>
       </c>
@@ -8156,7 +8172,7 @@
         <v>1B</v>
       </c>
     </row>
-    <row r="81" spans="32:36" x14ac:dyDescent="0.3">
+    <row r="81" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF81" s="10"/>
       <c r="AG81" s="10"/>
       <c r="AI81" s="12" t="str">
@@ -8164,7 +8180,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="82" spans="32:36" x14ac:dyDescent="0.3">
+    <row r="82" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF82" s="10"/>
       <c r="AG82" s="10"/>
       <c r="AI82" s="12" t="str">
@@ -8172,7 +8188,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="83" spans="32:36" x14ac:dyDescent="0.3">
+    <row r="83" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF83" s="10" t="s">
         <v>98</v>
       </c>
@@ -8187,7 +8203,7 @@
         <v>1F</v>
       </c>
     </row>
-    <row r="84" spans="32:36" x14ac:dyDescent="0.3">
+    <row r="84" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF84" s="10"/>
       <c r="AG84" s="10" t="s">
         <v>87</v>
@@ -8197,7 +8213,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="85" spans="32:36" x14ac:dyDescent="0.3">
+    <row r="85" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF85" s="10"/>
       <c r="AG85" s="10" t="s">
         <v>88</v>
@@ -8207,7 +8223,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="86" spans="32:36" x14ac:dyDescent="0.3">
+    <row r="86" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AF86" s="10" t="s">
         <v>99</v>
       </c>
@@ -8222,10 +8238,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="87" spans="32:36" x14ac:dyDescent="0.3">
+    <row r="87" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AI87" s="12"/>
     </row>
-    <row r="88" spans="32:36" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="32:36" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AF88" s="16" t="s">
         <v>32</v>
       </c>
@@ -8233,8 +8249,8 @@
       <c r="AH88" s="16"/>
       <c r="AI88" s="16"/>
     </row>
-    <row r="89" spans="32:36" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="32:36" x14ac:dyDescent="0.3">
+    <row r="89" spans="32:36" ht="34" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="32:36" x14ac:dyDescent="0.2">
       <c r="AG90" s="7"/>
       <c r="AH90" s="7"/>
       <c r="AI90" s="7"/>
